--- a/Projects/kpi-dashboard-1.0/dataframe.xlsx
+++ b/Projects/kpi-dashboard-1.0/dataframe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python310\Projects\KPI Dashboards\KPI-Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Krishan-Naidoo-Developer\Krishan-Naidoo912.github.io\Projects\kpi-dashboard-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8DFDCC-27DF-44D8-88DA-DDD246058039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF70840E-F0E7-4202-9514-7FDDA0D2B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16440ED4-0A24-4088-B654-CCF1C21C222D}"/>
   </bookViews>

--- a/Projects/kpi-dashboard-1.0/dataframe.xlsx
+++ b/Projects/kpi-dashboard-1.0/dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Krishan-Naidoo-Developer\Krishan-Naidoo912.github.io\Projects\kpi-dashboard-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF70840E-F0E7-4202-9514-7FDDA0D2B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6024E0-FAAC-4D03-9EDA-2F61CA7B6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16440ED4-0A24-4088-B654-CCF1C21C222D}"/>
   </bookViews>
